--- a/Doc/ExcelConfig/Datas/dota/RoundEnemyPoolConfig.xlsx
+++ b/Doc/ExcelConfig/Datas/dota/RoundEnemyPoolConfig.xlsx
@@ -1420,8 +1420,8 @@
   <sheetPr/>
   <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1657,7 +1657,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="5">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H5" s="5">
         <v>100</v>
@@ -1678,7 +1678,7 @@
         <v>2</v>
       </c>
       <c r="N5" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O5" s="19" t="s">
         <v>53</v>
@@ -1715,7 +1715,7 @@
         <v>4</v>
       </c>
       <c r="N6" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O6" s="19" t="s">
         <v>54</v>
@@ -1750,7 +1750,7 @@
         <v>6</v>
       </c>
       <c r="N7" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O7" s="19" t="s">
         <v>54</v>
@@ -1781,7 +1781,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="5">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H8" s="5">
         <v>115</v>
@@ -1802,7 +1802,7 @@
         <v>2</v>
       </c>
       <c r="N8" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O8" s="19" t="s">
         <v>60</v>
@@ -1838,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="N9" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O9" s="19" t="s">
         <v>62</v>
@@ -1874,7 +1874,7 @@
         <v>6</v>
       </c>
       <c r="N10" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O10" s="19" t="s">
         <v>64</v>
@@ -1905,7 +1905,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="5">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H11" s="5">
         <v>120</v>
@@ -1926,7 +1926,7 @@
         <v>3</v>
       </c>
       <c r="N11" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O11" s="19" t="s">
         <v>60</v>
@@ -1962,7 +1962,7 @@
         <v>4</v>
       </c>
       <c r="N12" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O12" s="19" t="s">
         <v>62</v>
@@ -1998,7 +1998,7 @@
         <v>5</v>
       </c>
       <c r="N13" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O13" s="19" t="s">
         <v>64</v>
@@ -2029,7 +2029,7 @@
         <v>2</v>
       </c>
       <c r="G14" s="5">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H14" s="5">
         <v>120</v>
@@ -2050,7 +2050,7 @@
         <v>6</v>
       </c>
       <c r="N14" s="5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O14" s="19" t="s">
         <v>71</v>
@@ -2086,7 +2086,7 @@
         <v>4</v>
       </c>
       <c r="N15" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O15" s="19" t="s">
         <v>73</v>
@@ -2119,10 +2119,10 @@
         <v>1</v>
       </c>
       <c r="M16" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N16" s="5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O16" s="19" t="s">
         <v>71</v>
